--- a/outputs-r202/test-g__Bacillus.xlsx
+++ b/outputs-r202/test-g__Bacillus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Row</t>
   </si>
@@ -142,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -152,14 +152,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -210,214 +214,214 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.2577866601514859e-10</v>
+        <v>4.6493193009850065e-07</v>
       </c>
       <c r="C2">
-        <v>9.1957919940235853e-09</v>
+        <v>1.4663841773035289e-08</v>
       </c>
       <c r="D2">
-        <v>2.8132792629490297e-12</v>
+        <v>4.8491960050715559e-10</v>
       </c>
       <c r="E2">
-        <v>7.9394284571356519e-14</v>
+        <v>3.8619266765696665e-10</v>
       </c>
       <c r="F2">
-        <v>0.045345762195338514</v>
+        <v>0.044763586877962711</v>
       </c>
       <c r="G2">
-        <v>0.00097505081030533605</v>
+        <v>0.00018983030400537766</v>
       </c>
       <c r="H2">
-        <v>7.9394284571356569e-14</v>
+        <v>4.9559321032454831e-14</v>
       </c>
       <c r="I2">
-        <v>4.6537347266679371e-06</v>
+        <v>0.00052093769841737468</v>
       </c>
       <c r="J2">
-        <v>0.18340436281388101</v>
+        <v>0.13996551926624529</v>
       </c>
       <c r="K2">
-        <v>7.9394284571357125e-14</v>
+        <v>1.244346995811003e-12</v>
       </c>
       <c r="L2">
-        <v>3.6190118331414605e-06</v>
+        <v>9.8319939819289302e-06</v>
       </c>
       <c r="M2">
-        <v>0.56136492644998015</v>
+        <v>0.56859198200120953</v>
       </c>
       <c r="N2">
-        <v>8.1061897452764116e-09</v>
+        <v>1.9312194606622255e-11</v>
       </c>
       <c r="O2">
-        <v>0.00197669705909983</v>
+        <v>0.021659037743694164</v>
       </c>
       <c r="P2">
-        <v>0.065364090558870797</v>
+        <v>0.12063475049830916</v>
       </c>
       <c r="Q2">
-        <v>7.9394284571356595e-14</v>
+        <v>4.9559321032454818e-14</v>
       </c>
       <c r="R2">
-        <v>7.9394284571356595e-14</v>
+        <v>4.9559321032454818e-14</v>
       </c>
       <c r="S2">
-        <v>7.9394284571356544e-14</v>
+        <v>4.9559321032454812e-14</v>
       </c>
       <c r="T2">
-        <v>7.9394284571356544e-14</v>
+        <v>4.9559321032454812e-14</v>
       </c>
       <c r="U2">
-        <v>1.0673500303596105e-08</v>
+        <v>2.261888029966064e-07</v>
       </c>
       <c r="V2">
-        <v>0.1326479511327496</v>
+        <v>0.082544679343473606</v>
       </c>
       <c r="W2">
-        <v>0.0018833086617648014</v>
+        <v>0.012691387207236293</v>
       </c>
       <c r="X2">
-        <v>0.0013572907805156752</v>
+        <v>0.00073445857248871985</v>
       </c>
       <c r="Y2">
-        <v>1.4758721511214343e-06</v>
+        <v>1.8625792277383166e-06</v>
       </c>
       <c r="Z2">
-        <v>0.0047767528008560425</v>
+        <v>0.0053165242775977161</v>
       </c>
       <c r="AA2">
-        <v>5.411088717348061e-05</v>
+        <v>0.00037327734155757729</v>
       </c>
       <c r="AB2">
-        <v>4.8051944957569341e-12</v>
+        <v>5.7815529253618107e-09</v>
       </c>
       <c r="AC2">
-        <v>0.00072993872050451181</v>
+        <v>0.0019914789735458655</v>
       </c>
       <c r="AD2">
-        <v>7.9394284571356506e-14</v>
+        <v>2.0603471297036979e-13</v>
       </c>
       <c r="AE2">
-        <v>1.4820668291999884e-08</v>
+        <v>6.9549063197229082e-09</v>
       </c>
       <c r="AF2">
-        <v>0.00010996557990771207</v>
+        <v>1.012701158014028e-05</v>
       </c>
       <c r="AG2">
-        <v>7.9394284571356506e-14</v>
+        <v>8.896260191300645e-09</v>
       </c>
       <c r="AH2">
-        <v>7.9394284571356506e-14</v>
+        <v>4.9559321032458005e-14</v>
       </c>
       <c r="AI2">
         <v>12</v>
